--- a/public/Untitled form (Responses).xlsx
+++ b/public/Untitled form (Responses).xlsx
@@ -5,22 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\tsukumomabuchi.unofficail.github.io\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\tsukumomabuchiunofficail.github.io\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A27B5BD-23F0-4ACB-8F40-2DC3F5F801B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771FCEAA-3E6E-450F-BAD8-AC6CC9FDDFE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Form Responses 1" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="72">
   <si>
     <t>Timestamp</t>
   </si>
@@ -28,82 +28,312 @@
     <t>Email Address</t>
   </si>
   <si>
-    <t>Untitled Question</t>
-  </si>
-  <si>
-    <t>yunghe.chao.jp@gmail.com</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1EILAOSGKIuY7uE0Mtz3SXJ8IojAB17Kl</t>
-  </si>
-  <si>
-    <t>Option 1</t>
-  </si>
-  <si>
-    <t>123213
-44444
-5555
-66666</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
     <t>context</t>
   </si>
   <si>
-    <t>avactar</t>
-  </si>
-  <si>
     <t>attachments</t>
   </si>
   <si>
-    <t>test.com</t>
-  </si>
-  <si>
-    <t>牧醬</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Option 2</t>
-  </si>
-  <si>
-    <t>Option 3</t>
-  </si>
-  <si>
-    <t>Option 4</t>
-  </si>
-  <si>
-    <t>test.com2</t>
-  </si>
-  <si>
-    <t>test.com3</t>
-  </si>
-  <si>
-    <t>test.com4</t>
-  </si>
-  <si>
-    <t>MUZI</t>
-  </si>
-  <si>
-    <t>愛</t>
-  </si>
-  <si>
-    <t>織</t>
-  </si>
-  <si>
-    <t>雪</t>
-  </si>
-  <si>
-    <t>test.com5</t>
-  </si>
-  <si>
-    <t>誰啊</t>
+    <t>Night Roses</t>
+  </si>
+  <si>
+    <t>文字</t>
+  </si>
+  <si>
+    <t>夜銃</t>
+  </si>
+  <si>
+    <t>希望魔王可以早日振作起來 
+當初自己在低潮時投了萬事箱
+而魔王給的回應都是先安慰了我再告訴我可以怎麼做
+我真的很感動也很感謝
+明明我的內容沒有提到的
+魔王也推敲了出來
+還給了我很多的建議
+這是出乎我意料之外的
+魔王幫助了我們也讓我們可以依靠
+如果魔王需要
+我們也願意成為魔王的肩膀可以依靠著</t>
+  </si>
+  <si>
+    <t>阿哲</t>
+  </si>
+  <si>
+    <t>YT終究還是承受不住真淵的H爆開了，現在魔王大人應該很崩潰。我們能給的依然是抱抱跟支持，在這裡等著真淵回歸。
+魔王大人帶給自己的壓力太多了，一週10幾開加上各個階層的福利，壓到自己喘不過氣，更何況還有那糟糕的環境因素不斷妨礙你的作業。
+最後，還是那句話，小欸魔不會因為幾週幾個月沒見到魔王就忘記你，我們會在這邊等你回歸。</t>
+  </si>
+  <si>
+    <t>書靈</t>
+  </si>
+  <si>
+    <t>在一直以來你的努力我們都有看到，我們也會跟你一起邁過這道坎</t>
+  </si>
+  <si>
+    <t>獨角仙٩( ᐛ )و</t>
+  </si>
+  <si>
+    <t>魔王大人辛苦了
+我們小欸魔們會在貨架上面等妳回來的
+所以妳不是一個人的٩( ᐛ )و
+無論何時、
+妳的身後都會有成群結隊的小欸魔陪伴著妳
+請不要傷心難過、
+平常都是妳在幫我們解憂、陪伴我們
+這次就輪到我們陪著妳一起度過這段時間
+等著妳回來٩( ᐛ )و٩( ᐛ )و٩( ᐛ )و
+發生這種事不是妳的錯、
+傷心的時候、
+可以想著有一群小欸魔在貨架上邊玩答辯邊等妳回來、
+妳的笑容是最美麗的、
+等妳回來的時候、
+希望妳看到平時惹的妳又氣又想掐鼠蛋雕
+的我們可以笑出來
+我們會一直等妳回來的٩( ᐛ )و</t>
+  </si>
+  <si>
+    <t>耀仁</t>
+  </si>
+  <si>
+    <t>親愛的真淵姐姐:
+俗話說的好「人總是在失去後才懂得珍惜」，我深刻感受到了。我發現我好喜歡妳的直播，我去看了其他直播。其他的直播帶給我的快樂，都無法超越妳。所以請妳放心，好好休息。我肯定不會忘記妳的，畢竟我還想聽妳唱〈萬千花蕊慈母悲哀〉。真淵姐姐加油，我相信妳可以度過這次難關的。我還想要當 答辯幫、 醒教 成員，所以妳一定要振作起來。你可別像《還願》裡的何老師捲款而逃，如果妳這麼做，我絕對不會輕易放過妳的。
+妳的小欸魔—耀仁 敬上</t>
+  </si>
+  <si>
+    <t>春樹</t>
+  </si>
+  <si>
+    <t>最溫柔、最有氣質的魔王大人，
+曾經在深夜談心裡，溫暖了無數小惡魔的魔王大人，
+曾經在無數個午後、無數個夜晚，帶給小惡魔們歡笑的魔王大人。
+不曉得現在的你，是否像以前在深夜裡徘徊的小惡魔們一樣徬徨、迷茫呢？
+這次輪到小惡魔們為你伸出手了，就像你曾經拉了我們一把那樣，
+為一直那麼努力、既擔心又害怕的你，盡一份心力了。
+願我們的文字能化為你的力量，帶給你勇氣，
+無論未來如何，我們的心裡永遠都有你的位子，永遠都不會忘記你的。
+等你回來，我們再一起往前走，一起加油！你很棒，親愛的。</t>
+  </si>
+  <si>
+    <t>荷洛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">美麗溫柔氣質大方的魔王大人!我是兩週前才剛成為小惡魔的荷洛，當初會發現魔王大人是因為某個偶然的降肉讓我發現了這個寶藏Vtuber，一個不小心被不斷賣(放)力(送)深(福)蹲(利)的淵寶貝吸引，一個不小心就訂閱了會員。
+你的直播每次都可以帶來歡笑，帶來感動，或許真淵妳不是最有名的，不是最賺錢的，但卻是我跟過最有趣、最有內涵、也最愛粉絲的主播。
+得知頻道出問題，我們都很焦急難過，我們可能不能幫妳太多，但希望淵淵你知道，在某個地方，有個剛認識不久的小惡魔，正在等你重新出發，等你再次帶給我們美好的回憶!(抱
+</t>
+  </si>
+  <si>
+    <t>小雞</t>
+  </si>
+  <si>
+    <t>魔王大人 我知道這事情發生的有點突然，從被封七天然後沒多久頻道就沒了，妳一定很難過吧，我們小欸魔也很難過，因為這是妳辛辛苦苦花了三個月的心血，在處理這件事情時也不要忘記照顧自己，事情一定會好賺的，小欸魔們是不會忘記我們偉大的魔王大人 (つд⊂) 辛苦了 加油</t>
+  </si>
+  <si>
+    <t>E L</t>
+  </si>
+  <si>
+    <t>姐姐你很棒，事情慢慢處理，利用這個機會好好休息一下，我們都會等你回來，雖然很少跟到台但是會繼續支持姐姐的，我愛姐姐</t>
+  </si>
+  <si>
+    <t>Tasaki</t>
+  </si>
+  <si>
+    <t>魔王加油.也要照顧好自己這才是對小欸魔最棒的獎勵.未來也請多多指教.我們小欸魔就是淵最強的後援會.我們會等待著魔王的歸來.祝淵未來會過得更好</t>
+  </si>
+  <si>
+    <t>PKC</t>
+  </si>
+  <si>
+    <t>淵，我完成能理解妳當下崩潰的感覺、後續的沮喪以及難過
+在收到會員暫停服務信的當下我是錯愕的，看著標題空蕩蕩的「」符號，心理不祥的感覺越來越重
+然後打開了YT之後，從不敢置信到一直重新打開關閉YT、點開妳推特之後去點YT連結重複確認之後，才終於面對現實
+當下的大家其實是很緊張的聚在一起，很慌張的那種
+但緊接著就看到了妳的推文，雖然沒有說好，但所有人都有很有默契的同時留下了同樣性質的留言給妳
+那就是當下第一個念頭就想先告訴妳，我們都在、大家都在妳熟悉的地方支持著妳，等著妳回來。
+妳需要傾訴的時候，守夜的小欸魔們會互相通風報信聚到妳身邊
+妳需要一個人的時候，大家會拿著綠界打卡說魔王大人我帶著妳把我蛋出去撿的錢回來了、在萬事箱裡頭投稿日記跟你分享發生了些什麼幫妳打打氣，只要妳回頭就會看到大家。
+今天能看到妳回來真的很開心
+真淵，加油
+愛妳</t>
+  </si>
+  <si>
+    <t>企鵝</t>
+  </si>
+  <si>
+    <t>幻鈴</t>
+  </si>
+  <si>
+    <t>魔王姊姊
+頻道突然不見
+大家都很擔心也很難過
+你所感受到的負面情緒一定不亞於我們
+這是你與大家一起共同經營、相處三個月的地方
+曾經付出的所有努力和得到的成績
+有可能就這樣付諸流水
+不管是誰遇到這樣的情況
+一定都會手足無措
+不過 就算遇到再糟糕的情況
+也請你記住 你絕對不是自己一個人
+在你的後面還有幾萬隻的小惡魔陪著
+不管怎樣也絕對不會離開
+現在如此
+以後 也依舊會如此</t>
+  </si>
+  <si>
+    <t>飢渴</t>
+  </si>
+  <si>
+    <t>一早起床就看到信箱跳沒名子的訂閱遭暫停,原本還覺得為甚麼後就突然想到該不會只有一個可能
+趕快起床看推特YT...不會吧為什麼真的不見了 明明前天還看得很開心的說 上班前就看到這個消息真的相當錯愕
+說好的7天怎麼突然沒了 心血在一瞬間不見魔王一定很難過 我們也不例外 但我相信魔王絕對有辦法重新站起來 而我們也不會忘記魔王 太多擔心只會讓人更著急 難過一天就好一天後再拚回來 隔天魔王開始更新消息終於放心多了 魔王加油
+抱歉那個我只會講正向話 好聽的話我不太會ww</t>
+  </si>
+  <si>
+    <t>amy</t>
+  </si>
+  <si>
+    <t>我最親愛的罵不起大人，小女子在家只要經過佛堂都會順勢拜個拜，祈求有好結果，雖然我不知道惡魔會不會跟佛打架(?)；最後說一下，從來都沒有忘記過妳，因為我每天都很愛妳，我一直一直都很愛妳 啾啾啾啾啾 (´,,•ω•,,)♡</t>
+  </si>
+  <si>
+    <t>朧月</t>
+  </si>
+  <si>
+    <t>魔王大人，雖然最近您不幸被YT給監禁起來了，但是我們都會好好地幫您看好家，等待您回歸的。以往都是您在吸收我們的負面情緒，給予我們精神上的支持及建議，這次就換我們反過來吸收您的負面情緒吧!有什麼情緒都可以盡情地朝著我們釋放和傾訴，雖然您不在的這段時間我們一直都很想您，情緒也有點低迷，但我們小欸魔內心都是很堅強的。也請您要好好的保重您的魔體，這樣我們才能夠放心地迎接狀態最好的您，拉更多的人汝教並一起醒教。</t>
+  </si>
+  <si>
+    <t>杜杜</t>
+  </si>
+  <si>
+    <t>真淵姊姊妳好呀，不曉得這幾天妳過得如何呢?有沒有好好的吃飯和休息呢?
+我想和姊姊說一聲辛苦妳了，妳真的很棒
+從出道前準備階段就開始關注姊姊
+姊姊是個非常努力認真的人，每次的直播都希望給予觀眾最好的體驗
+所付出的時間與精力是大家有目共睹的
+這次的事情真的好難過也好心疼，希望我們小欸魔可以陪著姊姊度過這個難關
+最後想再跟姊姊說辛苦妳了，妳非常非常棒，好好休息充電，我們都會陪在妳身旁的</t>
+  </si>
+  <si>
+    <t>林</t>
+  </si>
+  <si>
+    <t>平安喜樂
+在聽到魔王小姐頻道炸掉的時候 老實說非常錯愕
+每天看到魔王小姐、聽到聲音已經變成生活的一環
+瞬間就這樣沒有了 心裡好像也有什麼東西不見了
+感覺很差...但再怎麼比 你肯定是最難過的
+畢竟是苦心經營的結果、和與小惡魔們的共同回憶.
+...後面看到報平安的推文後稍稍放心了一些.
+接下來的重建肯定很難熬 但再難熬 都會陪在你身邊
+還想聽你分享過往現在未來的點點滴滴、
+還想陪你渡過再來的時間...不管如何 一切會好的
+真淵 你是最棒的 愛你 加油🖤💪</t>
+  </si>
+  <si>
+    <t>烏亞</t>
+  </si>
+  <si>
+    <t>事情發生得好突然，也不知道yt為什麼壞壞，這不是你的錯，希望這件事情不要讓你受到太大的影響，也許是守護靈覺得你太累了
+既然這樣不如趁這段時間好好的休息吧，大家也都會等你回來的，愛你的烏亞</t>
+  </si>
+  <si>
+    <t>木子</t>
+  </si>
+  <si>
+    <t>淵~雖然頻道沒了是硬傷，不過就算重開了我也會繼續跟隨妳的，加油！！身體要照顧好 偶爾也要好好吃飯，別一直啃吐司邊，愛您🖤</t>
+  </si>
+  <si>
+    <t>希果</t>
+  </si>
+  <si>
+    <t>35ba8b6464ca663cc32b402be391181c1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    本人最敬愛的魔王大人:
+    　　本次帳號被刪除一事，希望魔王大人能夠振作，並與芥川一起度過找出度過難關的方法，
+    魔王大人任何困難、有情緒想要發洩，都可以跟我們說。
+    我們都會乖乖地等妳的，並且絕對絕對會繼續支持麼王，請魔王大人不要把我們蛋雕இдஇ
+    祝魔王大人身體健康！願事業順利成功！
+                                                                                                                         Night Roses 敬啟
+    西元2024年7月15日</t>
+  </si>
+  <si>
+    <t>35ba8b6464ca663cc32b402be391181c2</t>
+  </si>
+  <si>
+    <t>35ba8b6464ca663cc32b402be391181c3</t>
+  </si>
+  <si>
+    <t>35ba8b6464ca663cc32b402be391181c4</t>
+  </si>
+  <si>
+    <t>35ba8b6464ca663cc32b402be391181c5</t>
+  </si>
+  <si>
+    <t>35ba8b6464ca663cc32b402be391181c6</t>
+  </si>
+  <si>
+    <t>35ba8b6464ca663cc32b402be391181c7</t>
+  </si>
+  <si>
+    <t>35ba8b6464ca663cc32b402be391181c8</t>
+  </si>
+  <si>
+    <t>35ba8b6464ca663cc32b402be391181c9</t>
+  </si>
+  <si>
+    <t>35ba8b6464ca663cc32b402be391181c10</t>
+  </si>
+  <si>
+    <t>35ba8b6464ca663cc32b402be391181c11</t>
+  </si>
+  <si>
+    <t>35ba8b6464ca663cc32b402be391181c12</t>
+  </si>
+  <si>
+    <t>35ba8b6464ca663cc32b402be391181c13</t>
+  </si>
+  <si>
+    <t>希望魔王大人 可以趁這段時間好好休息 你很棒的  其他的話我就不多說了 願你的頻道能夠順利回來 我和其他小欸魔都會等你的 一起加油</t>
+  </si>
+  <si>
+    <t>35ba8b6464ca663cc32b402be391181c14</t>
+  </si>
+  <si>
+    <t>35ba8b6464ca663cc32b402be391181c15</t>
+  </si>
+  <si>
+    <t>35ba8b6464ca663cc32b402be391181c16</t>
+  </si>
+  <si>
+    <t>35ba8b6464ca663cc32b402be391181c17</t>
+  </si>
+  <si>
+    <t>35ba8b6464ca663cc32b402be391181c18</t>
+  </si>
+  <si>
+    <t>35ba8b6464ca663cc32b402be391181c19</t>
+  </si>
+  <si>
+    <t>35ba8b6464ca663cc32b402be391181c20</t>
+  </si>
+  <si>
+    <t>35ba8b6464ca663cc32b402be391181c21</t>
+  </si>
+  <si>
+    <t>35ba8b6464ca663cc32b402be391181c22</t>
+  </si>
+  <si>
+    <t>魔王大人貴安
+在您失去消息的那一小段時間,小欸魔們幾乎陷入了暴亂ww,大家都非常擔心魔王大人怎麼突然消失了,
+當然我也不例外,能在得到您的消息,和在圖奇再次看到您出現在眾人視野,懸著的心也放了下來。
+我很感謝魔王大人,有魔王大人,才有這活耀的小欸魔軍團存在,他們真的為我的生活增添了許多歡聲笑語,
+讓我的人生日記更加豐富,這都是多虧您。
+我追V可能不像一些粉絲,會大膽的表達愛意,我把您當作真正的偶像,是持續在舞台上閃耀的一顆星,希望
+您能跨越近來的混亂,繼續回到大家身邊,我們 會一直等您回來
+                                                                                                                                                                           希果 上</t>
   </si>
 </sst>
 </file>
@@ -113,7 +343,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -122,19 +352,16 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="10"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -155,17 +382,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{61199735-3D3F-4A91-909E-CDC8F5DCBD39}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -377,23 +606,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD9CD6DA-45FE-43DD-B493-295A8712ACA9}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="13" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" style="2" customWidth="1"/>
+    <col min="3" max="12" width="18.85546875" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="12.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -401,212 +633,391 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>45488.501794918979</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>45488.520809085647</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>45488.571691481484</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>45488.467962569441</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>45488.468541412032</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>14124214</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>45489.468553240738</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>45488.819609120372</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>45488.829913958332</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>45489.468553240738</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>45489.468553240738</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>45488.902100219908</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>45488.941407499995</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>45492.468564814815</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>45488.948172928242</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>45489.253397199078</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>45492.468564814815</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="1" t="s">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>45489.258456655094</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>45494.468541377311</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>45495.468587962961</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>45489.349491446759</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E10">
-        <v>44444</v>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>45489.958694930552</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>45489.967003530095</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>45489.97989383102</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>45490.034291863427</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>45490.043123773146</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>45490.177638587964</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>45490.279580462964</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>45490.370100405096</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>45490.441193460647</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>45490.462802604168</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>45490.64574876157</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C4:C6" r:id="rId2" display="https://drive.google.com/open?id=1EILAOSGKIuY7uE0Mtz3SXJ8IojAB17Kl" xr:uid="{ADBA01BE-04C3-4D29-A7DA-6B1AD6EBBAD5}"/>
-    <hyperlink ref="C7" r:id="rId3" xr:uid="{196F9BF1-9409-4A3F-9487-157F726C36F4}"/>
-    <hyperlink ref="C8" r:id="rId4" xr:uid="{0E7166A5-5324-4CE7-AAC1-270767630056}"/>
-    <hyperlink ref="C9" r:id="rId5" xr:uid="{128BD275-4B67-4276-B921-19EF03150EF8}"/>
-    <hyperlink ref="C10" r:id="rId6" xr:uid="{DC8C1ECF-023A-4C06-8695-498720C16FA8}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>